--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2142155.826532874</v>
+        <v>2139903.746821668</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>120.7740905403548</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -710,16 +710,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>17.35112070699488</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>206.5922292904583</v>
       </c>
       <c r="Y4" t="n">
-        <v>178.620322860039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,19 +899,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0.3107267886865429</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>126.5388824951715</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>109.3235974497386</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>144.7268717888062</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>195.137902069968</v>
+        <v>139.175595971222</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>76.9503019954242</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>77.31354443380452</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187855</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>214.4033048062054</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>38.95525409458224</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187843</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>18.7084378797686</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>182.1684078822117</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187843</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.9742741983373</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187853</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>21.85677025083604</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>18.70843787977265</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>11.56087338713407</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>78.6882778203391</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3004,16 +3004,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182055</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>100.1987639470055</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.154082144412</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609126</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>135.0949745400652</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4340,16 +4340,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>3197.788768583745</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2824.323010322666</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2434.183678346854</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080129</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>994.2880032601528</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4516,22 +4516,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1645.778206672847</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1645.778206672847</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1356.361036635886</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>1356.361036635886</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="Y4" t="n">
-        <v>1175.936468090393</v>
+        <v>382.1280466398576</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2175.400891308158</v>
+        <v>1285.591601078695</v>
       </c>
       <c r="C5" t="n">
-        <v>1806.438374367746</v>
+        <v>916.6290841382836</v>
       </c>
       <c r="D5" t="n">
-        <v>1448.172675760996</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>1062.384423162752</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>651.398518373144</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>236.3260682181405</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,25 +4565,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052369</v>
@@ -4595,22 +4595,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V5" t="n">
-        <v>3325.605821609171</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W5" t="n">
-        <v>3325.605821609171</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X5" t="n">
-        <v>2952.140063348092</v>
+        <v>2062.330773118629</v>
       </c>
       <c r="Y5" t="n">
-        <v>2562.00073137228</v>
+        <v>1672.191441142817</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218343</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>492.7661230698578</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C7" t="n">
-        <v>323.8299401419509</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D7" t="n">
-        <v>323.8299401419509</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
         <v>66.51211643218343</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1446.505797040963</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1191.821308835076</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>902.4041387981149</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>674.4145879000976</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y7" t="n">
-        <v>674.4145879000976</v>
+        <v>216.6287558445192</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1418.660964416652</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>1418.660964416652</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="D8" t="n">
-        <v>1060.395265809902</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="E8" t="n">
-        <v>674.6070132116577</v>
+        <v>553.6195264050923</v>
       </c>
       <c r="F8" t="n">
-        <v>263.6211084220501</v>
+        <v>546.6740256558888</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392464</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1418.660964416652</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4875,19 +4875,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>385.5649387724261</v>
+        <v>685.8122911638649</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445192</v>
+        <v>608.0847133907091</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1849.200058761417</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1560.097191887061</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1305.412703681174</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W10" t="n">
-        <v>1015.995533644213</v>
+        <v>1134.594421205412</v>
       </c>
       <c r="X10" t="n">
-        <v>788.005982746196</v>
+        <v>906.604870307395</v>
       </c>
       <c r="Y10" t="n">
-        <v>567.2134036026658</v>
+        <v>685.8122911638649</v>
       </c>
     </row>
     <row r="11">
@@ -5030,16 +5030,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5048,40 +5048,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,43 +5103,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L12" t="n">
-        <v>542.9134462654469</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891999</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429802</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>427.7414352191922</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>923.0670414349506</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>923.0670414349506</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1550.665004989557</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2102.574735228844</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>550.637687073287</v>
+        <v>513.8536007400671</v>
       </c>
       <c r="C16" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121602</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998245</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713837</v>
       </c>
       <c r="Y16" t="n">
-        <v>732.2861519035267</v>
+        <v>695.5020655703069</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2297.690135143763</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168593</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5759,43 +5759,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="21">
@@ -5817,31 +5817,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>801.6918836311989</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>801.6918836311989</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,13 +5978,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6054,37 +6054,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2185.384895601573</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6306,16 +6306,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>1031.260321675049</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>862.3241387471426</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>712.2074993348068</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>564.2944057524137</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429803</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>1212.908786505289</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6686,34 +6686,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7017,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1051.964939354869</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>883.0287564269624</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>732.9121170146336</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362668</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7190,34 +7190,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7369,13 +7369,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7406,10 +7406,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075813</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7649,7 +7649,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7731,22 +7731,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>127.7255247668006</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>36.41624546988314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405072</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788659</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>126.7587027673763</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>127.7255247667965</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>205.8445769401542</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>66.73277020259215</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24892,16 +24892,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>112.4047682534901</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25169,7 +25169,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>46.23519869956363</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,25 +25783,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>32.1518465585626</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174903</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174902</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174903</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174903</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>838914.2000174903</v>
+        <v>838914.2000174904</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>838914.2000174903</v>
+        <v>838914.2000174904</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>838914.2000174903</v>
+        <v>838914.2000174904</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>838914.2000174907</v>
+        <v>838914.2000174903</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>838914.2000174903</v>
+        <v>838914.2000174904</v>
       </c>
     </row>
     <row r="16">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516055</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="F2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="G2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="G2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>585181.2847752547</v>
-      </c>
-      <c r="I2" t="n">
-        <v>585181.2847752545</v>
       </c>
       <c r="J2" t="n">
         <v>585181.2847752545</v>
       </c>
       <c r="K2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="L2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="L2" t="n">
-        <v>585181.2847752545</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752545</v>
@@ -26350,7 +26350,7 @@
         <v>585181.2847752544</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="P2" t="n">
         <v>585181.2847752544</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.461807355</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="C4" t="n">
+        <v>91573.95495316938</v>
+      </c>
+      <c r="D4" t="n">
         <v>91573.95495316939</v>
       </c>
-      <c r="D4" t="n">
-        <v>91573.95495316945</v>
-      </c>
       <c r="E4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181819</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181811</v>
+        <v>12386.92018181823</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181814</v>
+        <v>12386.92018181819</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="J4" t="n">
         <v>12386.92018181813</v>
@@ -26445,13 +26445,13 @@
         <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
+        <v>12386.92018181815</v>
+      </c>
+      <c r="M4" t="n">
         <v>12386.92018181813</v>
       </c>
-      <c r="M4" t="n">
-        <v>12386.92018181823</v>
-      </c>
       <c r="N4" t="n">
-        <v>12386.92018181821</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="O4" t="n">
         <v>12386.92018181813</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-932997.3580905498</v>
+        <v>-932997.3580905497</v>
       </c>
       <c r="C6" t="n">
         <v>395747.3876370428</v>
       </c>
       <c r="D6" t="n">
-        <v>395747.3876370428</v>
+        <v>395747.3876370427</v>
       </c>
       <c r="E6" t="n">
-        <v>146259.3729621738</v>
+        <v>146224.6350367384</v>
       </c>
       <c r="F6" t="n">
-        <v>471671.8347695291</v>
+        <v>471637.0968440939</v>
       </c>
       <c r="G6" t="n">
-        <v>471671.834769529</v>
+        <v>471637.0968440935</v>
       </c>
       <c r="H6" t="n">
-        <v>471671.8347695295</v>
+        <v>471637.096844093</v>
       </c>
       <c r="I6" t="n">
-        <v>471671.8347695293</v>
+        <v>471637.0968440937</v>
       </c>
       <c r="J6" t="n">
-        <v>254140.6323722518</v>
+        <v>254105.8944468159</v>
       </c>
       <c r="K6" t="n">
-        <v>471671.8347695292</v>
+        <v>471637.0968440933</v>
       </c>
       <c r="L6" t="n">
-        <v>471671.8347695293</v>
+        <v>471637.0968440934</v>
       </c>
       <c r="M6" t="n">
-        <v>386616.8068340172</v>
+        <v>386582.0689085819</v>
       </c>
       <c r="N6" t="n">
-        <v>471671.8347695292</v>
+        <v>471637.0968440935</v>
       </c>
       <c r="O6" t="n">
-        <v>471671.8347695291</v>
+        <v>471637.0968440935</v>
       </c>
       <c r="P6" t="n">
-        <v>471671.8347695292</v>
+        <v>471637.0968440935</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.063161046444251e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.063161046444251e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.063161046444251e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.821829398085014e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.821829398085014e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26716,10 +26716,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26747,10 +26747,10 @@
         <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.063161046444251e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.306832697355</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.063161046444251e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>244.4988012306527</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>331.8898480104181</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27588,22 +27588,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>19.11742609857882</v>
       </c>
       <c r="Y4" t="n">
-        <v>39.96433049205584</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27619,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.3723148319964</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>168.0688818921489</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>37.1103651968306</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>73.85778156328857</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>215.7838235834854</v>
+        <v>271.7461296822315</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>90.29651910320364</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28026,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>142.2354048423647</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.330580173293129e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-1.656704540226531e-12</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.330580173293129e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.34914301952449e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30043,10 +30043,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30147,7 +30147,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>6.876916323751081e-12</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -30235,10 +30235,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.736439038534721e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>289.7537444526273</v>
       </c>
       <c r="L12" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>746.4857620875795</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>353.3934907042787</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>164.9290651940701</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>483.3274636075166</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32731,7 +32731,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
@@ -32786,28 +32786,28 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32947,7 +32947,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -33026,19 +33026,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>553.392502062293</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33497,19 +33497,19 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>742.935485982477</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33737,16 +33737,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>652.3203287778407</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,7 +33755,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,13 +34126,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>163.4402738502018</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34387,7 +34387,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34451,25 +34451,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>506.5895320981981</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>151.9123054782683</v>
       </c>
       <c r="L12" t="n">
-        <v>453.6331143610859</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>615.1440500042462</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>219.4190832899485</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998953</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>22.33282074962563</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36674,19 +36674,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>414.8381222824188</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>611.5937738991437</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>520.9786166945074</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,7 +37403,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,13 +37774,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>29.46586643587157</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38035,7 +38035,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>368.0351523183239</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
